--- a/DESIGN_DOCUMENTATION/FluxCapacitors.Budget.xlsx
+++ b/DESIGN_DOCUMENTATION/FluxCapacitors.Budget.xlsx
@@ -448,13 +448,13 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,14 +476,14 @@
         <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3">
         <v>70</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>5600</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,7 +553,7 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>5714.95</v>
+        <v>11314.95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
